--- a/daftar_berita/detik_.xlsx
+++ b/daftar_berita/detik_.xlsx
@@ -458,56 +458,56 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Purbaya Beri Subsidi Bunga buat KUR Perumahan, Segini Besarannya</t>
+          <t>Purbaya Bantah Dikte Bank BUMN Naikkan Bunga Deposito Valas ke 4%</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-26T11:00:52+07:00</t>
+          <t>2025-09-26T16:11:28+07:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Danica Adhitiawarman</t>
+          <t>Anisa Indraini</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://www.detik.com/properti/berita/d-8131197/purbaya-beri-subsidi-bunga-buat-kur-perumahan-segini-besarannya</t>
+          <t>https://finance.detik.com/moneter/d-8131959/purbaya-bantah-dikte-bank-bumn-naikkan-bunga-deposito-valas-ke-4</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Janji Purbaya Genjot Pertumbuhan Ekonomi-Tekan Jumlah Utang</t>
+          <t>Purbaya Beri Subsidi Bunga buat KUR Perumahan, Segini Besarannya</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-24T08:58:32+07:00</t>
+          <t>2025-09-26T11:00:52+07:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Anisa Indraini</t>
+          <t>Danica Adhitiawarman</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8126940/janji-purbaya-genjot-pertumbuhan-ekonomi-tekan-jumlah-utang</t>
+          <t>https://www.detik.com/properti/berita/d-8131197/purbaya-beri-subsidi-bunga-buat-kur-perumahan-segini-besarannya</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Purbaya: Saya Tak Akan Tambah Utang Terlalu Besar</t>
+          <t>Janji Purbaya Genjot Pertumbuhan Ekonomi-Tekan Jumlah Utang</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-09-23T13:13:19+07:00</t>
+          <t>2025-09-24T08:58:32+07:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -517,195 +517,195 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8125951/purbaya-saya-tak-akan-tambah-utang-terlalu-besar</t>
+          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8126940/janji-purbaya-genjot-pertumbuhan-ekonomi-tekan-jumlah-utang</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Purbaya Ingatkan Bank Penerima Rp 200 T: Kalau Nggak Hati-hati Bisa Dipecat</t>
+          <t>Purbaya: Saya Tak Akan Tambah Utang Terlalu Besar</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-09-16T18:29:51+07:00</t>
+          <t>2025-09-23T13:13:19+07:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Herdi Alif Al Hikam</t>
+          <t>Anisa Indraini</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/moneter/d-8115243/purbaya-ingatkan-bank-penerima-rp-200-t-kalau-nggak-hati-hati-bisa-dipecat</t>
+          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8125951/purbaya-saya-tak-akan-tambah-utang-terlalu-besar</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Kondisi Ekonomi Nasional dan Tantangannya</t>
+          <t>Purbaya Ingatkan Bank Penerima Rp 200 T: Kalau Nggak Hati-hati Bisa Dipecat</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-09-14T22:58:14+07:00</t>
+          <t>2025-09-16T18:29:51+07:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Tantan Taufiq Lubis</t>
+          <t>Herdi Alif Al Hikam</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://news.detik.com/kolom/d-8111922/kondisi-ekonomi-nasional-dan-tantangannya</t>
+          <t>https://finance.detik.com/moneter/d-8115243/purbaya-ingatkan-bank-penerima-rp-200-t-kalau-nggak-hati-hati-bisa-dipecat</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Saat Makan Bergizi Gratis Jadi Berkah untuk Santri Ponpes Assuruur</t>
+          <t>Kata Kepala BGN Soal Rentetan Keracunan MBG Saat Dipanggil Prabowo</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-09-26T15:00:53+07:00</t>
+          <t>2025-09-28T15:16:44+07:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wisma Putra</t>
+          <t>Wildan Noviansah</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-8131459/saat-makan-bergizi-gratis-jadi-berkah-untuk-santri-ponpes-assuruur</t>
+          <t>https://www.detik.com/jatim/berita/d-8134398/kata-kepala-bgn-soal-rentetan-keracunan-mbg-saat-dipanggil-prabowo</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Guru Belum Prioritas, Hampir 30% Anggaran Pendidikan 2026 Dipakai untuk MBG</t>
+          <t>Tak Ada Lagi Sosis-Burger CS di Menu MBG, BGN Rilis Hotline Aduan</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-09-26T15:00:00+07:00</t>
+          <t>2025-09-28T15:16:33+07:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Fahri Zulfikar</t>
+          <t>Nafilah Sri Sagita K</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.detik.com/edu/sekolah/d-8131724/guru-belum-prioritas-hampir-30-anggaran-pendidikan-2026-dipakai-untuk-mbg</t>
+          <t>https://www.detik.com/sumbagsel/berita/d-8134090/tak-ada-lagi-sosis-burger-cs-di-menu-mbg-bgn-rilis-hotline-aduan</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Program MBG di Kota Batu Disetop gegara Temuan Masakan Basi</t>
+          <t>Empat Pernyataan Prabowo Soal Keracunan MBG Termasuk Panggil Kepala BGN</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-09-26T14:45:19+07:00</t>
+          <t>2025-09-28T14:56:15+07:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>M Bagus Ibrahim</t>
+          <t>Eva Safitri</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jatim/berita/d-8131594/program-mbg-di-kota-batu-disetop-gegara-temuan-masakan-basi</t>
+          <t>https://www.detik.com/jatim/berita/d-8134350/empat-pernyataan-prabowo-soal-keracunan-mbg-termasuk-panggil-kepala-bgn</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Korban Keracunan MBG di Sumedang Capai 164 Siswa</t>
+          <t>3 Kasus Keracunan MBG Terjadi di Kalimantan Barat dalam Sepekan</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-09-26T14:17:28+07:00</t>
+          <t>2025-09-28T12:32:02+07:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Dwiky Maulana Vellayati</t>
+          <t>Tim detikKalimantan</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-8131647/korban-keracunan-mbg-di-sumedang-capai-164-siswa</t>
+          <t>https://www.detik.com/kalimantan/berita/d-8134157/3-kasus-keracunan-mbg-terjadi-di-kalimantan-barat-dalam-sepekan</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Panglima TNI: 452 SPPG Beroperasi, Target Kelola 2.000 Titik</t>
+          <t>Dear BGN, IDAI Sampaikan Surat Terbuka terkait Marak Keracunan MBG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-09-26T14:08:27+07:00</t>
+          <t>2025-09-28T12:30:14+07:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Jarmaji</t>
+          <t>Devandra Abi Prasetyo</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jateng/berita/d-8131630/panglima-tni-452-sppg-beroperasi-target-kelola-2-000-titik</t>
+          <t>https://health.detik.com/berita-detikhealth/d-8134153/dear-bgn-idai-sampaikan-surat-terbuka-terkait-marak-keracunan-mbg</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Penampakan Dapur MBG di Bandung yang Bikin Ratusan Siswa Keracunan</t>
+          <t>BGN Buka Layanan Aduan MBG, Catat Nomornya!</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-09-25T18:00:53+07:00</t>
+          <t>2025-09-28T12:29:12+07:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Tim detikHealth</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://news.detik.com/foto-news/d-8130038/penampakan-dapur-mbg-di-bandung-yang-bikin-ratusan-siswa-keracunan</t>
+          <t>https://www.detik.com/sulsel/berita/d-8134151/bgn-buka-layanan-aduan-mbg-catat-nomornya</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Potret Pilu Ribuan Anak Sekolah Jadi Korban Makan Bergizi Gratis</t>
+          <t>Bingkai Sepekan: MBG Jadi Polemik, Menu Minim Gizi-Ribuan Keracunan</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-09-25T13:10:51+07:00</t>
+          <t>2025-09-27T07:00:56+07:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,19 +715,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://health.detik.com/fotohealth/d-8129561/potret-pilu-ribuan-anak-sekolah-jadi-korban-makan-bergizi-gratis</t>
+          <t>https://health.detik.com/fotohealth/d-8132256/bingkai-sepekan-mbg-jadi-polemik-menu-minim-gizi-ribuan-keracunan</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>352 Siswa-Orang Tua di Bandung Barat Keracunan MBG</t>
+          <t>'Tur' ke Dapur Makan Bergizi Gratis di Bandung</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-09-23T12:00:10+07:00</t>
+          <t>2025-09-26T19:00:53+07:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://news.detik.com/foto-news/d-8125640/352-siswa-orang-tua-di-bandung-barat-keracunan-mbg</t>
+          <t>https://www.detik.com/jabar/foto/d-8131846/tur-ke-dapur-makan-bergizi-gratis-di-bandung</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Program MBG Warnai MPLS di Sekolah Rakyat Jakarta</t>
+          <t>MBG di Sekolah Jakut Isinya Cuma Snack, Gizi Dipertanyakan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-07-16T10:00:20+07:00</t>
+          <t>2025-09-26T17:00:17+07:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,19 +759,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://news.detik.com/foto-news/d-8013230/program-mbg-warnai-mpls-di-sekolah-rakyat-jakarta</t>
+          <t>https://health.detik.com/fotohealth/d-8131726/mbg-di-sekolah-jakut-isinya-cuma-snack-gizi-dipertanyakan</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Makan Bergizi Gratis Mulai Digelar di Padang</t>
+          <t>Penampakan Dapur MBG di Bandung yang Bikin Ratusan Siswa Keracunan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-06-05T09:00:18+07:00</t>
+          <t>2025-09-25T18:00:53+07:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -781,95 +781,95 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/foto-bisnis/d-7948963/makan-bergizi-gratis-mulai-digelar-di-padang</t>
+          <t>https://news.detik.com/foto-news/d-8130038/penampakan-dapur-mbg-di-bandung-yang-bikin-ratusan-siswa-keracunan</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Marak Kasus Keracunan MBG, YLKI Minta Ada Jaminan Higienis Sanitasi Dapur</t>
+          <t>Potret Pilu Ribuan Anak Sekolah Jadi Korban Makan Bergizi Gratis</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-09-26T13:31:39+07:00</t>
+          <t>2025-09-25T13:10:51+07:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Antara</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8131550/marak-kasus-keracunan-mbg-ylki-minta-ada-jaminan-higienis-sanitasi-dapur</t>
+          <t>https://health.detik.com/fotohealth/d-8129561/potret-pilu-ribuan-anak-sekolah-jadi-korban-makan-bergizi-gratis</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Baru 2 Pekan, Pasokan MBG di SMAN 1 Kedungwaru Mendadak Mandek</t>
+          <t>Bandung Raya Sepekan: Nestapa Ribuan Siswa Bandung Barat Keracunan MBG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-09-26T13:30:59+07:00</t>
+          <t>2025-09-28T12:00:23+07:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Adhar Muttaqin</t>
+          <t>Tim detikJabar</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jatim/berita/d-8131473/baru-2-pekan-pasokan-mbg-di-sman-1-kedungwaru-mendadak-mandek</t>
+          <t>https://www.detik.com/jabar/berita/d-8133104/bandung-raya-sepekan-nestapa-ribuan-siswa-bandung-barat-keracunan-mbg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Satu Siswa SDN 178 Palembang Masih Dirawat Usai Keracunan MBG</t>
+          <t>4 Pernyataan Prabowo Soal Maraknya Kasus Keracunan MBG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-09-26T13:30:56+07:00</t>
+          <t>2025-09-28T09:24:47+07:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Welly Jasrial Tanjung</t>
+          <t>Eva Safitri</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sumbagsel/berita/d-8131230/satu-siswa-sdn-178-palembang-masih-dirawat-usai-keracunan-mbg</t>
+          <t>https://news.detik.com/berita/d-8133958/4-pernyataan-prabowo-soal-maraknya-kasus-keracunan-mbg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Tanggapan BGN Usai Menu MBG Dikritik: Sering Variasi Menu Permintaan Anak-anak</t>
+          <t>Belasan Siswa di Jember Dilarikan ke Puskesmas Usai Makan Menu MBG</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-09-26T13:30:02+07:00</t>
+          <t>2025-09-27T23:15:14+07:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Farih Maulana Sidik, Novia Aisyah</t>
+          <t>Yakub Mulyono</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.detik.com/edu/sekolah/d-8131532/tanggapan-bgn-usai-menu-mbg-dikritik-sering-variasi-menu-permintaan-anak-anak</t>
+          <t>https://www.detik.com/jatim/berita/d-8133604/belasan-siswa-di-jember-dilarikan-ke-puskesmas-usai-makan-menu-mbg</t>
         </is>
       </c>
     </row>

--- a/daftar_berita/detik_.xlsx
+++ b/daftar_berita/detik_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D30"/>
+  <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,144 +568,144 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kata Kepala BGN Soal Rentetan Keracunan MBG Saat Dipanggil Prabowo</t>
+          <t>Prabowo Instruksikan Perbaikan MBG: Minta Koki Terlatih hingga Pasang CCTV</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-09-28T15:16:44+07:00</t>
+          <t>2025-09-29T09:06:44+07:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Wildan Noviansah</t>
+          <t>Anggi Muliawati</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jatim/berita/d-8134398/kata-kepala-bgn-soal-rentetan-keracunan-mbg-saat-dipanggil-prabowo</t>
+          <t>https://www.detik.com/bali/berita/d-8135103/prabowo-instruksikan-perbaikan-mbg-minta-koki-terlatih-hingga-pasang-cctv</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Tak Ada Lagi Sosis-Burger CS di Menu MBG, BGN Rilis Hotline Aduan</t>
+          <t>Sederet Instruksi Prabowo ke BGN Buntut Marak Keracunan MBG</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-09-28T15:16:33+07:00</t>
+          <t>2025-09-29T08:43:05+07:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Nafilah Sri Sagita K</t>
+          <t>Anggi Muliawati</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sumbagsel/berita/d-8134090/tak-ada-lagi-sosis-burger-cs-di-menu-mbg-bgn-rilis-hotline-aduan</t>
+          <t>https://www.detik.com/jateng/berita/d-8135088/sederet-instruksi-prabowo-ke-bgn-buntut-marak-keracunan-mbg</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Empat Pernyataan Prabowo Soal Keracunan MBG Termasuk Panggil Kepala BGN</t>
+          <t>Legislator Setuju Koki Makan Bergizi Gratis Harus Punya Pengalaman</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-09-28T14:56:15+07:00</t>
+          <t>2025-09-29T08:38:02+07:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Eva Safitri</t>
+          <t>Isal Mawardi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jatim/berita/d-8134350/empat-pernyataan-prabowo-soal-keracunan-mbg-termasuk-panggil-kepala-bgn</t>
+          <t>https://news.detik.com/berita/d-8135085/legislator-setuju-koki-makan-bergizi-gratis-harus-punya-pengalaman</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>3 Kasus Keracunan MBG Terjadi di Kalimantan Barat dalam Sepekan</t>
+          <t>Juru Masak MBG Dievaluasi</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-09-28T12:32:02+07:00</t>
+          <t>2025-09-29T07:58:00+07:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Tim detikKalimantan</t>
+          <t>Trypama Randra</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://www.detik.com/kalimantan/berita/d-8134157/3-kasus-keracunan-mbg-terjadi-di-kalimantan-barat-dalam-sepekan</t>
+          <t>https://news.detik.com/berita/d-8134900/juru-masak-mbg-dievaluasi</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Dear BGN, IDAI Sampaikan Surat Terbuka terkait Marak Keracunan MBG</t>
+          <t>Terungkap Bakteri 'Biang Kerok' Keracunan MBG di Bandung Barat</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-09-28T12:30:14+07:00</t>
+          <t>2025-09-29T07:01:12+07:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Devandra Abi Prasetyo</t>
+          <t>Antara</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://health.detik.com/berita-detikhealth/d-8134153/dear-bgn-idai-sampaikan-surat-terbuka-terkait-marak-keracunan-mbg</t>
+          <t>https://news.detik.com/berita/d-8135037/terungkap-bakteri-biang-kerok-keracunan-mbg-di-bandung-barat</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>BGN Buka Layanan Aduan MBG, Catat Nomornya!</t>
+          <t>Bingkai Sepekan: MBG Jadi Polemik, Menu Minim Gizi-Ribuan Keracunan</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-09-28T12:29:12+07:00</t>
+          <t>2025-09-27T07:00:56+07:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Tim detikHealth</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sulsel/berita/d-8134151/bgn-buka-layanan-aduan-mbg-catat-nomornya</t>
+          <t>https://health.detik.com/fotohealth/d-8132256/bingkai-sepekan-mbg-jadi-polemik-menu-minim-gizi-ribuan-keracunan</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Bingkai Sepekan: MBG Jadi Polemik, Menu Minim Gizi-Ribuan Keracunan</t>
+          <t>'Tur' ke Dapur Makan Bergizi Gratis di Bandung</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-09-27T07:00:56+07:00</t>
+          <t>2025-09-26T19:00:53+07:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -715,19 +715,19 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://health.detik.com/fotohealth/d-8132256/bingkai-sepekan-mbg-jadi-polemik-menu-minim-gizi-ribuan-keracunan</t>
+          <t>https://www.detik.com/jabar/foto/d-8131846/tur-ke-dapur-makan-bergizi-gratis-di-bandung</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>'Tur' ke Dapur Makan Bergizi Gratis di Bandung</t>
+          <t>MBG di Sekolah Jakut Isinya Cuma Snack, Gizi Dipertanyakan</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-09-26T19:00:53+07:00</t>
+          <t>2025-09-26T17:00:17+07:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/foto/d-8131846/tur-ke-dapur-makan-bergizi-gratis-di-bandung</t>
+          <t>https://health.detik.com/fotohealth/d-8131726/mbg-di-sekolah-jakut-isinya-cuma-snack-gizi-dipertanyakan</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>MBG di Sekolah Jakut Isinya Cuma Snack, Gizi Dipertanyakan</t>
+          <t>Penampakan Dapur MBG di Bandung yang Bikin Ratusan Siswa Keracunan</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-09-26T17:00:17+07:00</t>
+          <t>2025-09-25T18:00:53+07:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,19 +759,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://health.detik.com/fotohealth/d-8131726/mbg-di-sekolah-jakut-isinya-cuma-snack-gizi-dipertanyakan</t>
+          <t>https://news.detik.com/foto-news/d-8130038/penampakan-dapur-mbg-di-bandung-yang-bikin-ratusan-siswa-keracunan</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Penampakan Dapur MBG di Bandung yang Bikin Ratusan Siswa Keracunan</t>
+          <t>Potret Pilu Ribuan Anak Sekolah Jadi Korban Makan Bergizi Gratis</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-09-25T18:00:53+07:00</t>
+          <t>2025-09-25T13:10:51+07:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -781,239 +781,239 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://news.detik.com/foto-news/d-8130038/penampakan-dapur-mbg-di-bandung-yang-bikin-ratusan-siswa-keracunan</t>
+          <t>https://health.detik.com/fotohealth/d-8129561/potret-pilu-ribuan-anak-sekolah-jadi-korban-makan-bergizi-gratis</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Potret Pilu Ribuan Anak Sekolah Jadi Korban Makan Bergizi Gratis</t>
+          <t>4 Instruksi Prabowo Saat Panggil Kepala BGN Usai Marak Keracunan MBG</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-09-25T13:10:51+07:00</t>
+          <t>2025-09-29T06:29:26+07:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Anggi Muliawati</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://health.detik.com/fotohealth/d-8129561/potret-pilu-ribuan-anak-sekolah-jadi-korban-makan-bergizi-gratis</t>
+          <t>https://news.detik.com/berita/d-8135031/4-instruksi-prabowo-saat-panggil-kepala-bgn-usai-marak-keracunan-mbg</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Bandung Raya Sepekan: Nestapa Ribuan Siswa Bandung Barat Keracunan MBG</t>
+          <t>CISDI Dorong Pemerintah Susun Perpres Perbaikan Menyeluruh MBG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-09-28T12:00:23+07:00</t>
+          <t>2025-09-29T06:20:00+07:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Tim detikJabar</t>
+          <t>Isal Mawardi</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-8133104/bandung-raya-sepekan-nestapa-ribuan-siswa-bandung-barat-keracunan-mbg</t>
+          <t>https://news.detik.com/berita/d-8135020/cisdi-dorong-pemerintah-susun-perpres-perbaikan-menyeluruh-mbg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>4 Pernyataan Prabowo Soal Maraknya Kasus Keracunan MBG</t>
+          <t>Langkah Prabowo untuk Kelanjutan Program MBG</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-09-28T09:24:47+07:00</t>
+          <t>2025-09-29T05:58:59+07:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Eva Safitri</t>
+          <t>Tim detikcom</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8133958/4-pernyataan-prabowo-soal-maraknya-kasus-keracunan-mbg</t>
+          <t>https://www.detik.com/kalimantan/berita/d-8134967/langkah-prabowo-untuk-kelanjutan-program-mbg</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Belasan Siswa di Jember Dilarikan ke Puskesmas Usai Makan Menu MBG</t>
+          <t>Blak-blakan Menkop soal Tantangan Koperasi Merah Putih</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-09-27T23:15:14+07:00</t>
+          <t>2025-09-26T17:03:11+07:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Yakub Mulyono</t>
+          <t>Wisma Putra</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jatim/berita/d-8133604/belasan-siswa-di-jember-dilarikan-ke-puskesmas-usai-makan-menu-mbg</t>
+          <t>https://www.detik.com/jabar/bisnis/d-8132102/blak-blakan-menkop-soal-tantangan-koperasi-merah-putih</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Kecele Diskon Tarif Listrik</t>
+          <t>Begini Strategi Khofifah Cegah Jeratan Pinjol Ilegal di Tengah Warga</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-06-04T14:50:18+07:00</t>
+          <t>2025-09-26T10:45:16+07:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>20detik Signature</t>
+          <t>Faiq Azmi</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-7948209/kecele-diskon-tarif-listrik</t>
+          <t>https://www.detik.com/jatim/berita/d-8131171/begini-strategi-khofifah-cegah-jeratan-pinjol-ilegal-di-tengah-warga</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kelas Menengah Tetap 'Gigit Jari' Meski Prabowo Beri Stimulus Ekonomi?</t>
+          <t>Kemenkop Puji Kopdes Aeng Batu-batu Takalar Raup Omzet Rp 2 Juta Per Hari</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-06-03T14:50:25+07:00</t>
+          <t>2025-09-23T14:46:31+07:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>20detik Signature</t>
+          <t>Adhe Junaedi Sholat</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-7946221/kelas-menengah-tetap-gigit-jari-meski-prabowo-beri-stimulus-ekonomi</t>
+          <t>https://www.detik.com/sulsel/bisnis/d-8126210/kemenkop-puji-kopdes-aeng-batu-batu-takalar-raup-omzet-rp-2-juta-per-hari</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Siap-siap Dapat BSU Rp 300 Ribu!</t>
+          <t>Kemenkop Kawal Pemberian Pinjaman Modal 3.059 Koperasi Merah Putih di Sulsel</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-05-29T07:57:51+07:00</t>
+          <t>2025-09-23T11:26:57+07:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Anisa Indraini</t>
+          <t>Adhe Junaedi Sholat</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/infografis/d-7938243/siap-siap-dapat-bsu-rp-300-ribu</t>
+          <t>https://www.detik.com/sulsel/bisnis/d-8125752/kemenkop-kawal-pemberian-pinjaman-modal-3-059-koperasi-merah-putih-di-sulsel</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Perkuat UMKM, Bupati Kebumen Luncurkan Program Stimulus untuk Rehab Warung</t>
+          <t>Ujian Awal Koperasi Merah Putih di Usia Setipis Daun Kelor</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2024-08-12T22:25:17+07:00</t>
+          <t>2025-09-22T10:30:00+07:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Erika Dyah</t>
+          <t>Andry Haryanto</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jateng/berita/d-7486710/perkuat-umkm-bupati-kebumen-luncurkan-program-stimulus-untuk-rehab-warung</t>
+          <t>https://www.detik.com/jabar/berita/d-8123636/ujian-awal-koperasi-merah-putih-di-usia-setipis-daun-kelor</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Hore! Keringanan Cicilan Mobil-Motor Diperpanjang hingga 2023</t>
+          <t>PPPK Bisa Diperbantukan di Kopdes, Pinjaman Rp 3 M Cair Pekan Depan</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2022-01-07T09:31:40+07:00</t>
+          <t>2025-09-18T19:25:18+07:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Danang Sugianto</t>
+          <t>Agus Setyadi</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/moneter/d-5887638/hore-keringanan-cicilan-mobil-motor-diperpanjang-hingga-2023</t>
+          <t>https://www.detik.com/sumut/bisnis/d-8119042/pppk-bisa-diperbantukan-di-kopdes-pinjaman-rp-3-m-cair-pekan-depan</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Pelonggaran Buyback-Private Placement, Ini 10 Stimulus OJK buat Pasar Modal</t>
+          <t>Melihat Koperasi Merah Putih di Melawai Jaksel</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021-08-19T14:32:01+07:00</t>
+          <t>2025-07-23T13:00:24+07:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>Danang Sugianto</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/moneter/d-5688142/pelonggaran-buyback-private-placement-ini-10-stimulus-ojk-buat-pasar-modal</t>
+          <t>https://finance.detik.com/foto-bisnis/d-8024832/melihat-koperasi-merah-putih-di-melawai-jaksel</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Asyik... Masih Ada Diskon Tarif Listrik saat PPKM Darurat</t>
+          <t>Wamenkop Apresiasi 100% Pembentukan Badan Hukum Kopdes Merah Putih di Lahat</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021-07-20T13:11:19+07:00</t>
+          <t>2025-06-10T15:10:00+07:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1023,73 +1023,139 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/foto-bisnis/d-5649860/asyik-masih-ada-diskon-tarif-listrik-saat-ppkm-darurat</t>
+          <t>https://www.detik.com/sumbagsel/foto/d-7957338/wamenkop-apresiasi-100-pembentukan-badan-hukum-kopdes-merah-putih-di-lahat</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Operasional Minus Terus, Agen Umroh Harap Pemerintah Beri Stimulus</t>
+          <t>Momen Wamenkop Ferry Pantau Musdesus Kopdes Merah Putih di Padang</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021-08-11T09:21:33+07:00</t>
+          <t>2025-05-29T19:30:25+07:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Elmy Tasya Khairally</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://travel.detik.com/travel-news/d-5677947/operasional-minus-terus-agen-umroh-harap-pemerintah-beri-stimulus</t>
+          <t>https://www.detik.com/sumut/foto/d-7939188/momen-wamenkop-ferry-pantau-musdesus-kopdes-merah-putih-di-padang</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bank BUMN Guyur Stimulus Rp 370 T Kerek Ekonomi RI</t>
+          <t>Budi Arie Sambangi KPK, Minta Pengawalan Program Koperasi Desa</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021-08-06T15:44:20+07:00</t>
+          <t>2025-05-21T17:29:29+07:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>Achmad Dwi Afriyadi</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/moneter/d-5672447/bank-bumn-guyur-stimulus-rp-370-t-kerek-ekonomi-ri</t>
+          <t>https://news.detik.com/foto-news/d-7925409/budi-arie-sambangi-kpk-minta-pengawalan-program-koperasi-desa</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Jumbo! Biden Rilis Rencana Anggaran Rp 85 Kuadriliun, Buat Aja Tuh?</t>
+          <t>20 Ribu Kopdes Ditargetkan Dapat Pinjaman dari Bank BUMN Tahun Ini</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021-05-31T10:23:06+07:00</t>
+          <t>2025-09-18T13:53:03+07:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Anisa Indraini</t>
+          <t>Retno Ayuningrum</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-5588044/jumbo-biden-rilis-rencana-anggaran-rp-85-kuadriliun-buat-aja-tuh</t>
+          <t>https://finance.detik.com/moneter/d-8118291/20-ribu-kopdes-ditargetkan-dapat-pinjaman-dari-bank-bumn-tahun-ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Link Pengumuman Hasil Seleksi Administrasi PMO Koperasi Merah Putih Kemenkop</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>2025-09-15T14:30:00+07:00</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Nikita Rosa</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/edu/detikpedia/d-8112624/link-pengumuman-hasil-seleksi-administrasi-pmo-koperasi-merah-putih-kemenkop</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Zulhas Minta Percepatan Pinjaman Kopdes Merah Putih: Rp 200 T Ada di Bank Himbara</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>2025-09-15T12:18:25+07:00</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Lisye Sri Rahayu</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8112520/zulhas-minta-percepatan-pinjaman-kopdes-merah-putih-rp-200-t-ada-di-bank-himbara</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Menteri Koperasi Tinjau Koperasi Merah Putih di Tuban, Ini Hasilnya</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-09-13T19:45:58+07:00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Ainur Rofiq</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/jatim/bisnis/d-8110591/menteri-koperasi-tinjau-koperasi-merah-putih-di-tuban-ini-hasilnya</t>
         </is>
       </c>
     </row>

--- a/daftar_berita/detik_.xlsx
+++ b/daftar_berita/detik_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:D43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,110 +568,110 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Prabowo Instruksikan Perbaikan MBG: Minta Koki Terlatih hingga Pasang CCTV</t>
+          <t>Forum Orang Tua Siswa Minta MBG di Jabar Disetop Sementara</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-09-29T09:06:44+07:00</t>
+          <t>2025-09-29T13:32:18+07:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anggi Muliawati</t>
+          <t>Bima Bagaskara</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://www.detik.com/bali/berita/d-8135103/prabowo-instruksikan-perbaikan-mbg-minta-koki-terlatih-hingga-pasang-cctv</t>
+          <t>https://news.detik.com/berita/d-8135596/forum-orang-tua-siswa-minta-mbg-di-jabar-disetop-sementara</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Sederet Instruksi Prabowo ke BGN Buntut Marak Keracunan MBG</t>
+          <t>Belasan Siswa MTS di KBB Kembali Dirawat Usai Gejala Keracunan MBG Kambuh Lagi</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-09-29T08:43:05+07:00</t>
+          <t>2025-09-29T13:16:52+07:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Anggi Muliawati</t>
+          <t>Whisnu Pradana</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jateng/berita/d-8135088/sederet-instruksi-prabowo-ke-bgn-buntut-marak-keracunan-mbg</t>
+          <t>https://news.detik.com/berita/d-8135570/belasan-siswa-mts-di-kbb-kembali-dirawat-usai-gejala-keracunan-mbg-kambuh-lagi</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Legislator Setuju Koki Makan Bergizi Gratis Harus Punya Pengalaman</t>
+          <t>Harga Rp 10 Ribu, Ini Penampakan Menu Dapur Sehat SD di Solo yang Tolak MBG</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-09-29T08:38:02+07:00</t>
+          <t>2025-09-29T13:12:02+07:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Isal Mawardi</t>
+          <t>Tara Wahyu NV</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135085/legislator-setuju-koki-makan-bergizi-gratis-harus-punya-pengalaman</t>
+          <t>https://www.detik.com/jateng/berita/d-8135560/harga-rp-10-ribu-ini-penampakan-menu-dapur-sehat-sd-di-solo-yang-tolak-mbg</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Juru Masak MBG Dievaluasi</t>
+          <t>Sehari 12 Jam di Dapur, Chef Program MBG Ini Ungkap Kesibukannya</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-09-29T07:58:00+07:00</t>
+          <t>2025-09-29T13:00:04+07:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Trypama Randra</t>
+          <t>Diah Afrilian</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8134900/juru-masak-mbg-dievaluasi</t>
+          <t>https://food.detik.com/info-kuliner/d-8135505/sehari-12-jam-di-dapur-chef-program-mbg-ini-ungkap-kesibukannya</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Terungkap Bakteri 'Biang Kerok' Keracunan MBG di Bandung Barat</t>
+          <t>Belasan Siswa MTs di Cipongkor Alami Gejala Berulang Keracunan MBG</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-09-29T07:01:12+07:00</t>
+          <t>2025-09-29T12:46:07+07:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Antara</t>
+          <t>Whisnu Pradana</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135037/terungkap-bakteri-biang-kerok-keracunan-mbg-di-bandung-barat</t>
+          <t>https://www.detik.com/jabar/berita/d-8135490/belasan-siswa-mts-di-cipongkor-alami-gejala-berulang-keracunan-mbg</t>
         </is>
       </c>
     </row>
@@ -788,144 +788,144 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>4 Instruksi Prabowo Saat Panggil Kepala BGN Usai Marak Keracunan MBG</t>
+          <t>Tolak MBG, Ortu Siswa SD di Solo Pilih Bayar Rp 10 Ribu ke Dapur Sekolah</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-09-29T06:29:26+07:00</t>
+          <t>2025-09-29T12:28:20+07:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Anggi Muliawati</t>
+          <t>Tara Wahyu NV</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135031/4-instruksi-prabowo-saat-panggil-kepala-bgn-usai-marak-keracunan-mbg</t>
+          <t>https://news.detik.com/berita/d-8135453/tolak-mbg-ortu-siswa-sd-di-solo-pilih-bayar-rp-10-ribu-ke-dapur-sekolah</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>CISDI Dorong Pemerintah Susun Perpres Perbaikan Menyeluruh MBG</t>
+          <t>SPPG Sumberejo Semin Ditutup Sementara Buntut 19 Murid Diduga Keracunan MBG</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-09-29T06:20:00+07:00</t>
+          <t>2025-09-29T12:22:19+07:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Isal Mawardi</t>
+          <t>Pradito Rida Pertana</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135020/cisdi-dorong-pemerintah-susun-perpres-perbaikan-menyeluruh-mbg</t>
+          <t>https://www.detik.com/jogja/berita/d-8135426/sppg-sumberejo-semin-ditutup-sementara-buntut-19-murid-diduga-keracunan-mbg</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Langkah Prabowo untuk Kelanjutan Program MBG</t>
+          <t>Ortu Siswa SD Swasta di Solo Tolak MBG, Pilih Bayar Rp 10 Ribu ke Dapur Sekolah</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-09-29T05:58:59+07:00</t>
+          <t>2025-09-29T12:00:38+07:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tim detikcom</t>
+          <t>Tara Wahyu NV</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.detik.com/kalimantan/berita/d-8134967/langkah-prabowo-untuk-kelanjutan-program-mbg</t>
+          <t>https://www.detik.com/jateng/berita/d-8135372/ortu-siswa-sd-swasta-di-solo-tolak-mbg-pilih-bayar-rp-10-ribu-ke-dapur-sekolah</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Blak-blakan Menkop soal Tantangan Koperasi Merah Putih</t>
+          <t>Ternyata Ada Bakteri Salmonella di Sampel Makanan Program MBG di Bandung Barat</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-09-26T17:03:11+07:00</t>
+          <t>2025-09-29T12:00:00+07:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Wisma Putra</t>
+          <t>Antara, Fahri Zulfikar</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/bisnis/d-8132102/blak-blakan-menkop-soal-tantangan-koperasi-merah-putih</t>
+          <t>https://www.detik.com/edu/sekolah/d-8135348/ternyata-ada-bakteri-salmonella-di-sampel-makanan-program-mbg-di-bandung-barat</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Begini Strategi Khofifah Cegah Jeratan Pinjol Ilegal di Tengah Warga</t>
+          <t>Blak-blakan Menkop soal Tantangan Koperasi Merah Putih</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2025-09-26T10:45:16+07:00</t>
+          <t>2025-09-26T17:03:11+07:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Faiq Azmi</t>
+          <t>Wisma Putra</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jatim/berita/d-8131171/begini-strategi-khofifah-cegah-jeratan-pinjol-ilegal-di-tengah-warga</t>
+          <t>https://www.detik.com/jabar/bisnis/d-8132102/blak-blakan-menkop-soal-tantangan-koperasi-merah-putih</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Kemenkop Puji Kopdes Aeng Batu-batu Takalar Raup Omzet Rp 2 Juta Per Hari</t>
+          <t>Begini Strategi Khofifah Cegah Jeratan Pinjol Ilegal di Tengah Warga</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2025-09-23T14:46:31+07:00</t>
+          <t>2025-09-26T10:45:16+07:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>Adhe Junaedi Sholat</t>
+          <t>Faiq Azmi</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sulsel/bisnis/d-8126210/kemenkop-puji-kopdes-aeng-batu-batu-takalar-raup-omzet-rp-2-juta-per-hari</t>
+          <t>https://www.detik.com/jatim/berita/d-8131171/begini-strategi-khofifah-cegah-jeratan-pinjol-ilegal-di-tengah-warga</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Kemenkop Kawal Pemberian Pinjaman Modal 3.059 Koperasi Merah Putih di Sulsel</t>
+          <t>Kemenkop Puji Kopdes Aeng Batu-batu Takalar Raup Omzet Rp 2 Juta Per Hari</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2025-09-23T11:26:57+07:00</t>
+          <t>2025-09-23T14:46:31+07:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -935,85 +935,85 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sulsel/bisnis/d-8125752/kemenkop-kawal-pemberian-pinjaman-modal-3-059-koperasi-merah-putih-di-sulsel</t>
+          <t>https://www.detik.com/sulsel/bisnis/d-8126210/kemenkop-puji-kopdes-aeng-batu-batu-takalar-raup-omzet-rp-2-juta-per-hari</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Ujian Awal Koperasi Merah Putih di Usia Setipis Daun Kelor</t>
+          <t>Kemenkop Kawal Pemberian Pinjaman Modal 3.059 Koperasi Merah Putih di Sulsel</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2025-09-22T10:30:00+07:00</t>
+          <t>2025-09-23T11:26:57+07:00</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>Andry Haryanto</t>
+          <t>Adhe Junaedi Sholat</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-8123636/ujian-awal-koperasi-merah-putih-di-usia-setipis-daun-kelor</t>
+          <t>https://www.detik.com/sulsel/bisnis/d-8125752/kemenkop-kawal-pemberian-pinjaman-modal-3-059-koperasi-merah-putih-di-sulsel</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>PPPK Bisa Diperbantukan di Kopdes, Pinjaman Rp 3 M Cair Pekan Depan</t>
+          <t>Ujian Awal Koperasi Merah Putih di Usia Setipis Daun Kelor</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2025-09-18T19:25:18+07:00</t>
+          <t>2025-09-22T10:30:00+07:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Agus Setyadi</t>
+          <t>Andry Haryanto</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sumut/bisnis/d-8119042/pppk-bisa-diperbantukan-di-kopdes-pinjaman-rp-3-m-cair-pekan-depan</t>
+          <t>https://www.detik.com/jabar/berita/d-8123636/ujian-awal-koperasi-merah-putih-di-usia-setipis-daun-kelor</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Melihat Koperasi Merah Putih di Melawai Jaksel</t>
+          <t>PPPK Bisa Diperbantukan di Kopdes, Pinjaman Rp 3 M Cair Pekan Depan</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2025-07-23T13:00:24+07:00</t>
+          <t>2025-09-18T19:25:18+07:00</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Agus Setyadi</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/foto-bisnis/d-8024832/melihat-koperasi-merah-putih-di-melawai-jaksel</t>
+          <t>https://www.detik.com/sumut/bisnis/d-8119042/pppk-bisa-diperbantukan-di-kopdes-pinjaman-rp-3-m-cair-pekan-depan</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Wamenkop Apresiasi 100% Pembentukan Badan Hukum Kopdes Merah Putih di Lahat</t>
+          <t>Melihat Koperasi Merah Putih di Melawai Jaksel</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2025-06-10T15:10:00+07:00</t>
+          <t>2025-07-23T13:00:24+07:00</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1023,19 +1023,19 @@
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sumbagsel/foto/d-7957338/wamenkop-apresiasi-100-pembentukan-badan-hukum-kopdes-merah-putih-di-lahat</t>
+          <t>https://finance.detik.com/foto-bisnis/d-8024832/melihat-koperasi-merah-putih-di-melawai-jaksel</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Momen Wamenkop Ferry Pantau Musdesus Kopdes Merah Putih di Padang</t>
+          <t>Wamenkop Apresiasi 100% Pembentukan Badan Hukum Kopdes Merah Putih di Lahat</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2025-05-29T19:30:25+07:00</t>
+          <t>2025-06-10T15:10:00+07:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1045,19 +1045,19 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>https://www.detik.com/sumut/foto/d-7939188/momen-wamenkop-ferry-pantau-musdesus-kopdes-merah-putih-di-padang</t>
+          <t>https://www.detik.com/sumbagsel/foto/d-7957338/wamenkop-apresiasi-100-pembentukan-badan-hukum-kopdes-merah-putih-di-lahat</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Budi Arie Sambangi KPK, Minta Pengawalan Program Koperasi Desa</t>
+          <t>Momen Wamenkop Ferry Pantau Musdesus Kopdes Merah Putih di Padang</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2025-05-21T17:29:29+07:00</t>
+          <t>2025-05-29T19:30:25+07:00</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1067,95 +1067,315 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>https://news.detik.com/foto-news/d-7925409/budi-arie-sambangi-kpk-minta-pengawalan-program-koperasi-desa</t>
+          <t>https://www.detik.com/sumut/foto/d-7939188/momen-wamenkop-ferry-pantau-musdesus-kopdes-merah-putih-di-padang</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>20 Ribu Kopdes Ditargetkan Dapat Pinjaman dari Bank BUMN Tahun Ini</t>
+          <t>Budi Arie Sambangi KPK, Minta Pengawalan Program Koperasi Desa</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2025-09-18T13:53:03+07:00</t>
+          <t>2025-05-21T17:29:29+07:00</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>Retno Ayuningrum</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/moneter/d-8118291/20-ribu-kopdes-ditargetkan-dapat-pinjaman-dari-bank-bumn-tahun-ini</t>
+          <t>https://news.detik.com/foto-news/d-7925409/budi-arie-sambangi-kpk-minta-pengawalan-program-koperasi-desa</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Link Pengumuman Hasil Seleksi Administrasi PMO Koperasi Merah Putih Kemenkop</t>
+          <t>20 Ribu Kopdes Ditargetkan Dapat Pinjaman dari Bank BUMN Tahun Ini</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2025-09-15T14:30:00+07:00</t>
+          <t>2025-09-18T13:53:03+07:00</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>Nikita Rosa</t>
+          <t>Retno Ayuningrum</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>https://www.detik.com/edu/detikpedia/d-8112624/link-pengumuman-hasil-seleksi-administrasi-pmo-koperasi-merah-putih-kemenkop</t>
+          <t>https://finance.detik.com/moneter/d-8118291/20-ribu-kopdes-ditargetkan-dapat-pinjaman-dari-bank-bumn-tahun-ini</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Zulhas Minta Percepatan Pinjaman Kopdes Merah Putih: Rp 200 T Ada di Bank Himbara</t>
+          <t>Link Pengumuman Hasil Seleksi Administrasi PMO Koperasi Merah Putih Kemenkop</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2025-09-15T12:18:25+07:00</t>
+          <t>2025-09-15T14:30:00+07:00</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>Lisye Sri Rahayu</t>
+          <t>Nikita Rosa</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8112520/zulhas-minta-percepatan-pinjaman-kopdes-merah-putih-rp-200-t-ada-di-bank-himbara</t>
+          <t>https://www.detik.com/edu/detikpedia/d-8112624/link-pengumuman-hasil-seleksi-administrasi-pmo-koperasi-merah-putih-kemenkop</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Zulhas Minta Percepatan Pinjaman Kopdes Merah Putih: Rp 200 T Ada di Bank Himbara</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>2025-09-15T12:18:25+07:00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Lisye Sri Rahayu</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/berita/d-8112520/zulhas-minta-percepatan-pinjaman-kopdes-merah-putih-rp-200-t-ada-di-bank-himbara</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
           <t>Menteri Koperasi Tinjau Koperasi Merah Putih di Tuban, Ini Hasilnya</t>
         </is>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B34" t="inlineStr">
         <is>
           <t>2025-09-13T19:45:58+07:00</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="C34" t="inlineStr">
         <is>
           <t>Ainur Rofiq</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="D34" t="inlineStr">
         <is>
           <t>https://www.detik.com/jatim/bisnis/d-8110591/menteri-koperasi-tinjau-koperasi-merah-putih-di-tuban-ini-hasilnya</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Kepala BGN Dipanggil Prabowo, Diminta Cegah Keracunan MBG dengan 4 Langkah Ini</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>2025-09-29T09:30:24+07:00</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Anggi Muliawati</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/edu/sekolah/d-8135117/kepala-bgn-dipanggil-prabowo-diminta-cegah-keracunan-mbg-dengan-4-langkah-ini</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Pidato Prabowo di PBB: Kemerdekaan Palestina dan Pesan Perdamaian</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>2025-09-28T19:03:18+07:00</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Sugiat Santoso</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/kolom/d-8134771/pidato-prabowo-di-pbb-kemerdekaan-palestina-dan-pesan-perdamaian</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Prabowo Tiba di Jakarta Usai Berpidato di Sidang Umum PBB</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>2025-09-27T17:18:23+07:00</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/foto-news/d-8133403/prabowo-tiba-di-jakarta-usai-berpidato-di-sidang-umum-pbb</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Potret Prabowo Didampingi Para Menteri Kabinet Merah Putih Hadiri Sidang Umum PBB Ke-80</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>2025-09-24T08:25:14+07:00</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/foto-news/d-8127325/potret-prabowo-didampingi-para-menteri-kabinet-merah-putih-hadiri-sidang-umum-pbb-ke-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Prabowo Serukan Keadilan Global dan Kesetaraan di Sidang Umum PBB ke-80</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>2025-09-24T07:52:07+07:00</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/foto-news/d-8127294/prabowo-serukan-keadilan-global-dan-kesetaraan-di-sidang-umum-pbb-ke-80</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Prabowo Bicara di PBB Soal Palestina, Usung Solusi Dua Negara</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>2025-09-23T11:00:32+07:00</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>https://news.detik.com/foto-news/d-8125619/prabowo-bicara-di-pbb-soal-palestina-usung-solusi-dua-negara</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Potret Kunjungan Presiden Prabowo ke Area dan Korban Banjir Bali</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>2025-09-14T06:06:36+07:00</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>https://travel.detik.com/fototravel/d-8110851/potret-kunjungan-presiden-prabowo-ke-area-dan-korban-banjir-bali</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Banyak Kasus Keracunan MBG di Sekolah, Begini Respons Presiden Prabowo</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>2025-09-28T18:12:23+07:00</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>detikNews, Cicin Yulianti</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/edu/sekolah/d-8134652/banyak-kasus-keracunan-mbg-di-sekolah-begini-respons-presiden-prabowo</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Prabowo Bakal Panggil Kepala BGN Bahas Kasus Keracunan MBG</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>2025-09-27T18:02:18+07:00</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Eva Safitri</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/sumut/berita/d-8133346/prabowo-bakal-panggil-kepala-bgn-bahas-kasus-keracunan-mbg</t>
         </is>
       </c>
     </row>

--- a/daftar_berita/detik_.xlsx
+++ b/daftar_berita/detik_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D43"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -568,166 +568,166 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Forum Orang Tua Siswa Minta MBG di Jabar Disetop Sementara</t>
+          <t>Purbaya Sidak Kantor BNI Saat Direksi Sedang Rapat, Ada Apa?</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-09-29T13:32:18+07:00</t>
+          <t>2025-09-29T13:04:09+07:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Bima Bagaskara</t>
+          <t>Anisa Indraini</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135596/forum-orang-tua-siswa-minta-mbg-di-jabar-disetop-sementara</t>
+          <t>https://finance.detik.com/moneter/d-8135534/purbaya-sidak-kantor-bni-saat-direksi-sedang-rapat-ada-apa</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Belasan Siswa MTS di KBB Kembali Dirawat Usai Gejala Keracunan MBG Kambuh Lagi</t>
+          <t>Bisnis Rokok Elektrik Pasok Penerimaan Rp 2,65 T ke Negara</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-09-29T13:16:52+07:00</t>
+          <t>2025-09-25T12:13:07+07:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Whisnu Pradana</t>
+          <t>Herdi Alif Al Hikam</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135570/belasan-siswa-mts-di-kbb-kembali-dirawat-usai-gejala-keracunan-mbg-kambuh-lagi</t>
+          <t>https://finance.detik.com/industri/d-8129595/bisnis-rokok-elektrik-pasok-penerimaan-rp-2-65-t-ke-negara</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Harga Rp 10 Ribu, Ini Penampakan Menu Dapur Sehat SD di Solo yang Tolak MBG</t>
+          <t>Pengusaha Minta ke Pemerintah Agar Cukai Tak Naik</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-09-29T13:12:02+07:00</t>
+          <t>2025-09-08T06:00:17+07:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Tara Wahyu NV</t>
+          <t>Retno Ayuningrum</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jateng/berita/d-8135560/harga-rp-10-ribu-ini-penampakan-menu-dapur-sehat-sd-di-solo-yang-tolak-mbg</t>
+          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8100488/pengusaha-minta-ke-pemerintah-agar-cukai-tak-naik</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Sehari 12 Jam di Dapur, Chef Program MBG Ini Ungkap Kesibukannya</t>
+          <t>Minta Cukai Tidak Naik, Pengusaha Singgung Masalah Daya Beli</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-09-29T13:00:04+07:00</t>
+          <t>2025-09-07T15:30:43+07:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Diah Afrilian</t>
+          <t>Retno Ayuningrum</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://food.detik.com/info-kuliner/d-8135505/sehari-12-jam-di-dapur-chef-program-mbg-ini-ungkap-kesibukannya</t>
+          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8099971/minta-cukai-tidak-naik-pengusaha-singgung-masalah-daya-beli</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Belasan Siswa MTs di Cipongkor Alami Gejala Berulang Keracunan MBG</t>
+          <t>Jenis Minuman yang Bakal Kena Cukai: Pocari Sweat cs!</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-09-29T12:46:07+07:00</t>
+          <t>2025-09-04T17:26:18+07:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Whisnu Pradana</t>
+          <t>Anisa Indraini</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/berita/d-8135490/belasan-siswa-mts-di-cipongkor-alami-gejala-berulang-keracunan-mbg</t>
+          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8096669/jenis-minuman-yang-bakal-kena-cukai-pocari-sweat-cs</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Bingkai Sepekan: MBG Jadi Polemik, Menu Minim Gizi-Ribuan Keracunan</t>
+          <t>Minuman Berpemanis dalam Kemasan Dikenakan Cukai pada 2026</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-09-27T07:00:56+07:00</t>
+          <t>2025-08-24T17:45:05+07:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Adhi Nauval Ilmi</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://health.detik.com/fotohealth/d-8132256/bingkai-sepekan-mbg-jadi-polemik-menu-minim-gizi-ribuan-keracunan</t>
+          <t>https://www.detik.com/bali/video/d-8076882/minuman-berpemanis-dalam-kemasan-dikenakan-cukai-pada-2026</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>'Tur' ke Dapur Makan Bergizi Gratis di Bandung</t>
+          <t>Minuman Berpemanis Kena Cukai Tahun Depan!</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-09-26T19:00:53+07:00</t>
+          <t>2025-08-22T19:57:12+07:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Aulia Damayanti</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jabar/foto/d-8131846/tur-ke-dapur-makan-bergizi-gratis-di-bandung</t>
+          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8074683/minuman-berpemanis-kena-cukai-tahun-depan</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>MBG di Sekolah Jakut Isinya Cuma Snack, Gizi Dipertanyakan</t>
+          <t>Penerapan Cukai Minuman Manis Batal Berlaku di 2025</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-09-26T17:00:17+07:00</t>
+          <t>2025-06-19T23:00:12+07:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -737,19 +737,19 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://health.detik.com/fotohealth/d-8131726/mbg-di-sekolah-jakut-isinya-cuma-snack-gizi-dipertanyakan</t>
+          <t>https://finance.detik.com/foto-bisnis/d-7972349/penerapan-cukai-minuman-manis-batal-berlaku-di-2025</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Penampakan Dapur MBG di Bandung yang Bikin Ratusan Siswa Keracunan</t>
+          <t>Minuman Berpemanis Bakal Kena Cukai Demi Cegah Prevalensi Diabetes</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-09-25T18:00:53+07:00</t>
+          <t>2023-12-15T08:05:36+07:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,19 +759,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://news.detik.com/foto-news/d-8130038/penampakan-dapur-mbg-di-bandung-yang-bikin-ratusan-siswa-keracunan</t>
+          <t>https://finance.detik.com/foto-bisnis/d-7090319/minuman-berpemanis-bakal-kena-cukai-demi-cegah-prevalensi-diabetes</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Potret Pilu Ribuan Anak Sekolah Jadi Korban Makan Bergizi Gratis</t>
+          <t>Nah Loh, Harga Rokok Tahun Depan Bisa Sentuh Rp 40 Ribu</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-09-25T13:10:51+07:00</t>
+          <t>2021-12-14T16:00:18+07:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -781,601 +781,95 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://health.detik.com/fotohealth/d-8129561/potret-pilu-ribuan-anak-sekolah-jadi-korban-makan-bergizi-gratis</t>
+          <t>https://finance.detik.com/foto-bisnis/d-5854517/nah-loh-harga-rokok-tahun-depan-bisa-sentuh-rp-40-ribu</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tolak MBG, Ortu Siswa SD di Solo Pilih Bayar Rp 10 Ribu ke Dapur Sekolah</t>
+          <t>Tarif Tetap dan Tak Ada Pajak Baru Tahun Depan</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-09-29T12:28:20+07:00</t>
+          <t>2025-08-15T17:34:46+07:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Tara Wahyu NV</t>
+          <t>Retno Ayuningrum</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://news.detik.com/berita/d-8135453/tolak-mbg-ortu-siswa-sd-di-solo-pilih-bayar-rp-10-ribu-ke-dapur-sekolah</t>
+          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8063219/tarif-tetap-dan-tak-ada-pajak-baru-tahun-depan</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>SPPG Sumberejo Semin Ditutup Sementara Buntut 19 Murid Diduga Keracunan MBG</t>
+          <t>Jual Ratusan Cerutu Ilegal, Pemilik Toko di Kuta Terancam 5 Tahun Bui</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-09-29T12:22:19+07:00</t>
+          <t>2025-08-12T21:15:22+07:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Pradito Rida Pertana</t>
+          <t>Ahmad Firizqi Irwan</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jogja/berita/d-8135426/sppg-sumberejo-semin-ditutup-sementara-buntut-19-murid-diduga-keracunan-mbg</t>
+          <t>https://www.detik.com/bali/hukum-dan-kriminal/d-8057986/jual-ratusan-cerutu-ilegal-pemilik-toko-di-kuta-terancam-5-tahun-bui</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Ortu Siswa SD Swasta di Solo Tolak MBG, Pilih Bayar Rp 10 Ribu ke Dapur Sekolah</t>
+          <t>Industri Rokok-Minuman Alkohol Sumbang Ratusan Triliun ke Negara</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-09-29T12:00:38+07:00</t>
+          <t>2025-08-04T14:52:22+07:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Tara Wahyu NV</t>
+          <t>Ilyas Fadilah</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://www.detik.com/jateng/berita/d-8135372/ortu-siswa-sd-swasta-di-solo-tolak-mbg-pilih-bayar-rp-10-ribu-ke-dapur-sekolah</t>
+          <t>https://finance.detik.com/industri/d-8044290/industri-rokok-minuman-alkohol-sumbang-ratusan-triliun-ke-negara</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Ternyata Ada Bakteri Salmonella di Sampel Makanan Program MBG di Bandung Barat</t>
+          <t>Pangsa Pasar Naik Jadi 31%, Sampoerna Cetak Laba Rp 2,1 T</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-09-29T12:00:00+07:00</t>
+          <t>2025-07-30T22:11:49+07:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>Antara, Fahri Zulfikar</t>
+          <t>Andi Hidayat</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://www.detik.com/edu/sekolah/d-8135348/ternyata-ada-bakteri-salmonella-di-sampel-makanan-program-mbg-di-bandung-barat</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>Blak-blakan Menkop soal Tantangan Koperasi Merah Putih</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>2025-09-26T17:03:11+07:00</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>Wisma Putra</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>https://www.detik.com/jabar/bisnis/d-8132102/blak-blakan-menkop-soal-tantangan-koperasi-merah-putih</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>Begini Strategi Khofifah Cegah Jeratan Pinjol Ilegal di Tengah Warga</t>
-        </is>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>2025-09-26T10:45:16+07:00</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>Faiq Azmi</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>https://www.detik.com/jatim/berita/d-8131171/begini-strategi-khofifah-cegah-jeratan-pinjol-ilegal-di-tengah-warga</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>Kemenkop Puji Kopdes Aeng Batu-batu Takalar Raup Omzet Rp 2 Juta Per Hari</t>
-        </is>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>2025-09-23T14:46:31+07:00</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>Adhe Junaedi Sholat</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>https://www.detik.com/sulsel/bisnis/d-8126210/kemenkop-puji-kopdes-aeng-batu-batu-takalar-raup-omzet-rp-2-juta-per-hari</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>Kemenkop Kawal Pemberian Pinjaman Modal 3.059 Koperasi Merah Putih di Sulsel</t>
-        </is>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>2025-09-23T11:26:57+07:00</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>Adhe Junaedi Sholat</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>https://www.detik.com/sulsel/bisnis/d-8125752/kemenkop-kawal-pemberian-pinjaman-modal-3-059-koperasi-merah-putih-di-sulsel</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>Ujian Awal Koperasi Merah Putih di Usia Setipis Daun Kelor</t>
-        </is>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>2025-09-22T10:30:00+07:00</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>Andry Haryanto</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>https://www.detik.com/jabar/berita/d-8123636/ujian-awal-koperasi-merah-putih-di-usia-setipis-daun-kelor</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>PPPK Bisa Diperbantukan di Kopdes, Pinjaman Rp 3 M Cair Pekan Depan</t>
-        </is>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>2025-09-18T19:25:18+07:00</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>Agus Setyadi</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>https://www.detik.com/sumut/bisnis/d-8119042/pppk-bisa-diperbantukan-di-kopdes-pinjaman-rp-3-m-cair-pekan-depan</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Melihat Koperasi Merah Putih di Melawai Jaksel</t>
-        </is>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>2025-07-23T13:00:24+07:00</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>https://finance.detik.com/foto-bisnis/d-8024832/melihat-koperasi-merah-putih-di-melawai-jaksel</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Wamenkop Apresiasi 100% Pembentukan Badan Hukum Kopdes Merah Putih di Lahat</t>
-        </is>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>2025-06-10T15:10:00+07:00</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>https://www.detik.com/sumbagsel/foto/d-7957338/wamenkop-apresiasi-100-pembentukan-badan-hukum-kopdes-merah-putih-di-lahat</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Momen Wamenkop Ferry Pantau Musdesus Kopdes Merah Putih di Padang</t>
-        </is>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>2025-05-29T19:30:25+07:00</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>https://www.detik.com/sumut/foto/d-7939188/momen-wamenkop-ferry-pantau-musdesus-kopdes-merah-putih-di-padang</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Budi Arie Sambangi KPK, Minta Pengawalan Program Koperasi Desa</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>2025-05-21T17:29:29+07:00</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/foto-news/d-7925409/budi-arie-sambangi-kpk-minta-pengawalan-program-koperasi-desa</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>20 Ribu Kopdes Ditargetkan Dapat Pinjaman dari Bank BUMN Tahun Ini</t>
-        </is>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>2025-09-18T13:53:03+07:00</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>Retno Ayuningrum</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>https://finance.detik.com/moneter/d-8118291/20-ribu-kopdes-ditargetkan-dapat-pinjaman-dari-bank-bumn-tahun-ini</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Link Pengumuman Hasil Seleksi Administrasi PMO Koperasi Merah Putih Kemenkop</t>
-        </is>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>2025-09-15T14:30:00+07:00</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>Nikita Rosa</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>https://www.detik.com/edu/detikpedia/d-8112624/link-pengumuman-hasil-seleksi-administrasi-pmo-koperasi-merah-putih-kemenkop</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Zulhas Minta Percepatan Pinjaman Kopdes Merah Putih: Rp 200 T Ada di Bank Himbara</t>
-        </is>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>2025-09-15T12:18:25+07:00</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>Lisye Sri Rahayu</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/berita/d-8112520/zulhas-minta-percepatan-pinjaman-kopdes-merah-putih-rp-200-t-ada-di-bank-himbara</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Menteri Koperasi Tinjau Koperasi Merah Putih di Tuban, Ini Hasilnya</t>
-        </is>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>2025-09-13T19:45:58+07:00</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>Ainur Rofiq</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>https://www.detik.com/jatim/bisnis/d-8110591/menteri-koperasi-tinjau-koperasi-merah-putih-di-tuban-ini-hasilnya</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Kepala BGN Dipanggil Prabowo, Diminta Cegah Keracunan MBG dengan 4 Langkah Ini</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>2025-09-29T09:30:24+07:00</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>Anggi Muliawati</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>https://www.detik.com/edu/sekolah/d-8135117/kepala-bgn-dipanggil-prabowo-diminta-cegah-keracunan-mbg-dengan-4-langkah-ini</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Pidato Prabowo di PBB: Kemerdekaan Palestina dan Pesan Perdamaian</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>2025-09-28T19:03:18+07:00</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>Sugiat Santoso</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/kolom/d-8134771/pidato-prabowo-di-pbb-kemerdekaan-palestina-dan-pesan-perdamaian</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Prabowo Tiba di Jakarta Usai Berpidato di Sidang Umum PBB</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>2025-09-27T17:18:23+07:00</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/foto-news/d-8133403/prabowo-tiba-di-jakarta-usai-berpidato-di-sidang-umum-pbb</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Potret Prabowo Didampingi Para Menteri Kabinet Merah Putih Hadiri Sidang Umum PBB Ke-80</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>2025-09-24T08:25:14+07:00</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/foto-news/d-8127325/potret-prabowo-didampingi-para-menteri-kabinet-merah-putih-hadiri-sidang-umum-pbb-ke-80</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Prabowo Serukan Keadilan Global dan Kesetaraan di Sidang Umum PBB ke-80</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>2025-09-24T07:52:07+07:00</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/foto-news/d-8127294/prabowo-serukan-keadilan-global-dan-kesetaraan-di-sidang-umum-pbb-ke-80</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Prabowo Bicara di PBB Soal Palestina, Usung Solusi Dua Negara</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>2025-09-23T11:00:32+07:00</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>https://news.detik.com/foto-news/d-8125619/prabowo-bicara-di-pbb-soal-palestina-usung-solusi-dua-negara</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Potret Kunjungan Presiden Prabowo ke Area dan Korban Banjir Bali</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>2025-09-14T06:06:36+07:00</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>https://travel.detik.com/fototravel/d-8110851/potret-kunjungan-presiden-prabowo-ke-area-dan-korban-banjir-bali</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Banyak Kasus Keracunan MBG di Sekolah, Begini Respons Presiden Prabowo</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>2025-09-28T18:12:23+07:00</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>detikNews, Cicin Yulianti</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>https://www.detik.com/edu/sekolah/d-8134652/banyak-kasus-keracunan-mbg-di-sekolah-begini-respons-presiden-prabowo</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Prabowo Bakal Panggil Kepala BGN Bahas Kasus Keracunan MBG</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>2025-09-27T18:02:18+07:00</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>Eva Safitri</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>https://www.detik.com/sumut/berita/d-8133346/prabowo-bakal-panggil-kepala-bgn-bahas-kasus-keracunan-mbg</t>
+          <t>https://finance.detik.com/bursa-dan-valas/d-8037646/pangsa-pasar-naik-jadi-31-sampoerna-cetak-laba-rp-2-1-t</t>
         </is>
       </c>
     </row>

--- a/daftar_berita/detik_.xlsx
+++ b/daftar_berita/detik_.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D20"/>
+  <dimension ref="A1:D23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -458,12 +458,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Purbaya Bantah Dikte Bank BUMN Naikkan Bunga Deposito Valas ke 4%</t>
+          <t>Purbaya Janji Bayar Tunggakan Rp 55 T ke BUMN: Tapi Jangan Rugi Terus!</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-09-26T16:11:28+07:00</t>
+          <t>2025-09-30T14:03:17+07:00</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -473,63 +473,63 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/moneter/d-8131959/purbaya-bantah-dikte-bank-bumn-naikkan-bunga-deposito-valas-ke-4</t>
+          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8137535/purbaya-janji-bayar-tunggakan-rp-55-t-ke-bumn-tapi-jangan-rugi-terus</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Purbaya Beri Subsidi Bunga buat KUR Perumahan, Segini Besarannya</t>
+          <t>Purbaya Bantah Dikte Bank BUMN Naikkan Bunga Deposito Valas ke 4%</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-09-26T11:00:52+07:00</t>
+          <t>2025-09-26T16:11:28+07:00</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Danica Adhitiawarman</t>
+          <t>Anisa Indraini</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>https://www.detik.com/properti/berita/d-8131197/purbaya-beri-subsidi-bunga-buat-kur-perumahan-segini-besarannya</t>
+          <t>https://finance.detik.com/moneter/d-8131959/purbaya-bantah-dikte-bank-bumn-naikkan-bunga-deposito-valas-ke-4</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Janji Purbaya Genjot Pertumbuhan Ekonomi-Tekan Jumlah Utang</t>
+          <t>Purbaya Beri Subsidi Bunga buat KUR Perumahan, Segini Besarannya</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-09-24T08:58:32+07:00</t>
+          <t>2025-09-26T11:00:52+07:00</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Anisa Indraini</t>
+          <t>Danica Adhitiawarman</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8126940/janji-purbaya-genjot-pertumbuhan-ekonomi-tekan-jumlah-utang</t>
+          <t>https://www.detik.com/properti/berita/d-8131197/purbaya-beri-subsidi-bunga-buat-kur-perumahan-segini-besarannya</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Purbaya: Saya Tak Akan Tambah Utang Terlalu Besar</t>
+          <t>Janji Purbaya Genjot Pertumbuhan Ekonomi-Tekan Jumlah Utang</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-09-23T13:13:19+07:00</t>
+          <t>2025-09-24T08:58:32+07:00</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -539,217 +539,217 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8125951/purbaya-saya-tak-akan-tambah-utang-terlalu-besar</t>
+          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8126940/janji-purbaya-genjot-pertumbuhan-ekonomi-tekan-jumlah-utang</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Purbaya Ingatkan Bank Penerima Rp 200 T: Kalau Nggak Hati-hati Bisa Dipecat</t>
+          <t>Purbaya: Saya Tak Akan Tambah Utang Terlalu Besar</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-09-16T18:29:51+07:00</t>
+          <t>2025-09-23T13:13:19+07:00</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Herdi Alif Al Hikam</t>
+          <t>Anisa Indraini</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/moneter/d-8115243/purbaya-ingatkan-bank-penerima-rp-200-t-kalau-nggak-hati-hati-bisa-dipecat</t>
+          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8125951/purbaya-saya-tak-akan-tambah-utang-terlalu-besar</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Purbaya Sidak Kantor BNI Saat Direksi Sedang Rapat, Ada Apa?</t>
+          <t>Purbaya Ingatkan Bank Penerima Rp 200 T: Kalau Nggak Hati-hati Bisa Dipecat</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-09-29T13:04:09+07:00</t>
+          <t>2025-09-16T18:29:51+07:00</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Anisa Indraini</t>
+          <t>Herdi Alif Al Hikam</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/moneter/d-8135534/purbaya-sidak-kantor-bni-saat-direksi-sedang-rapat-ada-apa</t>
+          <t>https://finance.detik.com/moneter/d-8115243/purbaya-ingatkan-bank-penerima-rp-200-t-kalau-nggak-hati-hati-bisa-dipecat</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Bisnis Rokok Elektrik Pasok Penerimaan Rp 2,65 T ke Negara</t>
+          <t>Purbaya Sidak Kantor BNI Saat Direksi Sedang Rapat, Ada Apa?</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-09-25T12:13:07+07:00</t>
+          <t>2025-09-29T13:04:09+07:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Herdi Alif Al Hikam</t>
+          <t>Anisa Indraini</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/industri/d-8129595/bisnis-rokok-elektrik-pasok-penerimaan-rp-2-65-t-ke-negara</t>
+          <t>https://finance.detik.com/moneter/d-8135534/purbaya-sidak-kantor-bni-saat-direksi-sedang-rapat-ada-apa</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Pengusaha Minta ke Pemerintah Agar Cukai Tak Naik</t>
+          <t>Ulama Jatim Dukung Menkeu Berantas Rokok Ilegal</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-09-08T06:00:17+07:00</t>
+          <t>2025-09-30T15:10:55+07:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Retno Ayuningrum</t>
+          <t>Faiq Azmi</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8100488/pengusaha-minta-ke-pemerintah-agar-cukai-tak-naik</t>
+          <t>https://www.detik.com/jatim/berita/d-8137673/ulama-jatim-dukung-menkeu-berantas-rokok-ilegal</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Minta Cukai Tidak Naik, Pengusaha Singgung Masalah Daya Beli</t>
+          <t>Usai Bertemu Djarum-Gudang Garam, Purbaya Putuskan Cukai Rokok Tak Naik</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-09-07T15:30:43+07:00</t>
+          <t>2025-09-27T06:27:00+07:00</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Retno Ayuningrum</t>
+          <t>Anisa Indraini</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8099971/minta-cukai-tidak-naik-pengusaha-singgung-masalah-daya-beli</t>
+          <t>https://finance.detik.com/industri/d-8132587/usai-bertemu-djarum-gudang-garam-purbaya-putuskan-cukai-rokok-tak-naik</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Jenis Minuman yang Bakal Kena Cukai: Pocari Sweat cs!</t>
+          <t>Kapal Baharkam Polri Gagalkan Penyelundupan Rokok Ilegal dari Batam ke Riau</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-09-04T17:26:18+07:00</t>
+          <t>2025-09-26T20:21:28+07:00</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Anisa Indraini</t>
+          <t>Alamudin Hamapu</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8096669/jenis-minuman-yang-bakal-kena-cukai-pocari-sweat-cs</t>
+          <t>https://www.detik.com/sumut/hukum-dan-kriminal/d-8132436/kapal-baharkam-polri-gagalkan-penyelundupan-rokok-ilegal-dari-batam-ke-riau</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Minuman Berpemanis dalam Kemasan Dikenakan Cukai pada 2026</t>
+          <t>Terungkap Modus Jualan Rokok Ilegal di Toko Online</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-08-24T17:45:05+07:00</t>
+          <t>2025-09-26T19:17:54+07:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Adhi Nauval Ilmi</t>
+          <t>Amanda Christabel</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>https://www.detik.com/bali/video/d-8076882/minuman-berpemanis-dalam-kemasan-dikenakan-cukai-pada-2026</t>
+          <t>https://finance.detik.com/industri/d-8132372/terungkap-modus-jualan-rokok-ilegal-di-toko-online</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Minuman Berpemanis Kena Cukai Tahun Depan!</t>
+          <t>Jabar Dikepung Rokok Ilegal, Bikin Negara Boncos Miliaran</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-08-22T19:57:12+07:00</t>
+          <t>2025-09-26T14:22:03+07:00</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Aulia Damayanti</t>
+          <t>Rifat Alhamidi</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8074683/minuman-berpemanis-kena-cukai-tahun-depan</t>
+          <t>https://www.detik.com/jabar/berita/d-8131643/jabar-dikepung-rokok-ilegal-bikin-negara-boncos-miliaran</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Penerapan Cukai Minuman Manis Batal Berlaku di 2025</t>
+          <t>Bea Cukai Kupang Sita 58.165 Batang Rokok Ilegal</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-06-19T23:00:12+07:00</t>
+          <t>2025-09-25T21:52:39+07:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>Simon Selly</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/foto-bisnis/d-7972349/penerapan-cukai-minuman-manis-batal-berlaku-di-2025</t>
+          <t>https://www.detik.com/bali/hukum-dan-kriminal/d-8130829/bea-cukai-kupang-sita-58-165-batang-rokok-ilegal</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Minuman Berpemanis Bakal Kena Cukai Demi Cegah Prevalensi Diabetes</t>
+          <t>Bea Cukai Musnahkan 64 Juta Rokok dan MMEA Ilegal</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2023-12-15T08:05:36+07:00</t>
+          <t>2025-06-25T22:30:31+07:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -759,19 +759,19 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/foto-bisnis/d-7090319/minuman-berpemanis-bakal-kena-cukai-demi-cegah-prevalensi-diabetes</t>
+          <t>https://finance.detik.com/foto-bisnis/d-7982307/bea-cukai-musnahkan-64-juta-rokok-dan-mmea-ilegal</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nah Loh, Harga Rokok Tahun Depan Bisa Sentuh Rp 40 Ribu</t>
+          <t>20 Juta Batang Rokok Ilegal Bea Cukai Dimusnahkan</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021-12-14T16:00:18+07:00</t>
+          <t>2024-11-21T20:35:11+07:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -781,85 +781,85 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/foto-bisnis/d-5854517/nah-loh-harga-rokok-tahun-depan-bisa-sentuh-rp-40-ribu</t>
+          <t>https://news.detik.com/foto-news/d-7649790/20-juta-batang-rokok-ilegal-bea-cukai-dimusnahkan</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Tarif Tetap dan Tak Ada Pajak Baru Tahun Depan</t>
+          <t>Pengungkapan Jutaan Rokok Ilegal di Surabaya</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-08-15T17:34:46+07:00</t>
+          <t>2024-11-11T19:33:27+07:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Retno Ayuningrum</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/berita-ekonomi-bisnis/d-8063219/tarif-tetap-dan-tak-ada-pajak-baru-tahun-depan</t>
+          <t>https://www.detik.com/jatim/foto/d-7633599/pengungkapan-jutaan-rokok-ilegal-di-surabaya</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Jual Ratusan Cerutu Ilegal, Pemilik Toko di Kuta Terancam 5 Tahun Bui</t>
+          <t>Potret Bea Cukai Bekasi Musnahkan 5 Juta Batang Rokok Ilegal</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2025-08-12T21:15:22+07:00</t>
+          <t>2024-10-09T17:40:50+07:00</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Ahmad Firizqi Irwan</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>https://www.detik.com/bali/hukum-dan-kriminal/d-8057986/jual-ratusan-cerutu-ilegal-pemilik-toko-di-kuta-terancam-5-tahun-bui</t>
+          <t>https://finance.detik.com/foto-bisnis/d-7580101/potret-bea-cukai-bekasi-musnahkan-5-juta-batang-rokok-ilegal</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Industri Rokok-Minuman Alkohol Sumbang Ratusan Triliun ke Negara</t>
+          <t>Bea Cukai Musnahkan Rokok hingga Miras Ilegal di Semarang</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2025-08-04T14:52:22+07:00</t>
+          <t>2024-07-09T19:00:38+07:00</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Ilyas Fadilah</t>
+          <t>-</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/industri/d-8044290/industri-rokok-minuman-alkohol-sumbang-ratusan-triliun-ke-negara</t>
+          <t>https://news.detik.com/foto-news/d-7430343/bea-cukai-musnahkan-rokok-hingga-miras-ilegal-di-semarang</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Pangsa Pasar Naik Jadi 31%, Sampoerna Cetak Laba Rp 2,1 T</t>
+          <t>Anggota DPR Usulkan Moratorium Cukai Rokok 3 Tahun</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2025-07-30T22:11:49+07:00</t>
+          <t>2025-09-25T11:26:57+07:00</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
@@ -869,7 +869,73 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>https://finance.detik.com/bursa-dan-valas/d-8037646/pangsa-pasar-naik-jadi-31-sampoerna-cetak-laba-rp-2-1-t</t>
+          <t>https://finance.detik.com/industri/d-8129626/anggota-dpr-usulkan-moratorium-cukai-rokok-3-tahun</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Pengedar Rokok Ilegal Kalsel Ngaku Untung Rp 500 Per Bungkus</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>2025-09-23T20:30:16+07:00</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Khairun Nisa</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/kalimantan/hukum-dan-kriminal/d-8126582/pengedar-rokok-ilegal-kalsel-ngaku-untung-rp-500-per-bungkus</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ditpolairud Polda Kalsel Ungkap Kasus Cukai Rokok Rugikan Negara Rp 505 Juta</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>2025-09-23T16:45:36+07:00</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Khairun Nisa</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://www.detik.com/kalimantan/hukum-dan-kriminal/d-8126392/ditpolairud-polda-kalsel-ungkap-kasus-cukai-rokok-rugikan-negara-rp-505-juta</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Cukai Rokok Tinggi Dinilai Picu Rokok Ilegal Merajalela</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>2025-09-23T13:02:25+07:00</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Andi Hidayat</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://finance.detik.com/industri/d-8126097/cukai-rokok-tinggi-dinilai-picu-rokok-ilegal-merajalela</t>
         </is>
       </c>
     </row>
